--- a/All_MIC_RFE_Results.xlsx
+++ b/All_MIC_RFE_Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mikimaru\Desktop\Ultra_folder\Thesis\Fire_Detection_2022_Material-main\Fire_Detection_2022_Material-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B3DA25C-050F-43F1-A407-370F82D02696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE110EF-02EB-41CC-A3AC-46D602F518F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -621,7 +621,7 @@
   <dimension ref="A1:D999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
